--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,81 +46,72 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -130,12 +121,12 @@
     <t>price</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
@@ -145,12 +136,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -163,12 +148,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -181,13 +166,16 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -554,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7378640776699029</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.5625</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7365591397849462</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.546875</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7323943661971831</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>0.4347826086956522</v>
@@ -923,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6891891891891891</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.3885245901639344</v>
+        <v>0.3557377049180328</v>
       </c>
       <c r="L9">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="M9">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>746</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.3228120516499283</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L10">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M10">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6134453781512605</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.2925311203319502</v>
+        <v>0.2842323651452282</v>
       </c>
       <c r="L11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5555555555555556</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.2048929663608563</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>260</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5052631578947369</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.2048192771084337</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4956521739130435</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.1798941798941799</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4578313253012048</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.09402460456942004</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>0.97</v>
@@ -1265,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>1031</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,63 +1261,63 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4251968503937008</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C16">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>129</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D16">
-        <v>54</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>73</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K16">
-        <v>0.04548408057179987</v>
+        <v>0.1018437225636523</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3595505617977528</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,21 +1329,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17">
+        <v>0.04096228868660598</v>
+      </c>
+      <c r="L17">
+        <v>63</v>
+      </c>
+      <c r="M17">
+        <v>66</v>
+      </c>
+      <c r="N17">
+        <v>0.95</v>
+      </c>
+      <c r="O17">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3412322274881517</v>
+        <v>0.3359375</v>
       </c>
       <c r="C18">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3359375</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1393,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3267326732673267</v>
+        <v>0.2985781990521327</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1419,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.282051282051282</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1445,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2246376811594203</v>
+        <v>0.215</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1471,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.22</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1497,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.211340206185567</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1523,73 +1535,73 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2008928571428572</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C25">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.189873417721519</v>
+        <v>0.1857355126300149</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1847133757961783</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1601,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1835443037974684</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1627,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1828571428571429</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1653,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1762114537444934</v>
+        <v>0.126027397260274</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1679,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1728971962616822</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1705,33 +1717,33 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1556195965417868</v>
+        <v>0.09887005649717515</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1739,25 +1751,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1235955056179775</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>234</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1765,13 +1777,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1041095890410959</v>
+        <v>0.0756578947368421</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1783,137 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.07906976744186046</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>0.11</v>
-      </c>
-      <c r="F36">
-        <v>0.89</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.07425742574257425</v>
-      </c>
-      <c r="C37">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>0.04</v>
-      </c>
-      <c r="F37">
-        <v>0.96</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.04683544303797468</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38">
-        <v>0.1</v>
-      </c>
-      <c r="F38">
-        <v>0.9</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0444104134762634</v>
-      </c>
-      <c r="C39">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>31</v>
-      </c>
-      <c r="E39">
-        <v>0.06</v>
-      </c>
-      <c r="F39">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>624</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
